--- a/CSV/王莽年表.xlsx
+++ b/CSV/王莽年表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6424F1DF-FBA4-EF44-A141-B2D3D8C848D4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F8039F-A56D-4649-A739-A868E4409699}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="500" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,7 +906,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+      <selection activeCell="A106" sqref="A106:A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2327,6 +2327,9 @@
       </c>
     </row>
     <row r="107" spans="1:4">
+      <c r="A107">
+        <v>14</v>
+      </c>
       <c r="B107" t="s">
         <v>123</v>
       </c>
@@ -2338,6 +2341,9 @@
       </c>
     </row>
     <row r="108" spans="1:4">
+      <c r="A108">
+        <v>14</v>
+      </c>
       <c r="B108" t="s">
         <v>124</v>
       </c>
@@ -2349,6 +2355,9 @@
       </c>
     </row>
     <row r="109" spans="1:4">
+      <c r="A109">
+        <v>14</v>
+      </c>
       <c r="B109" t="s">
         <v>125</v>
       </c>
@@ -2360,6 +2369,9 @@
       </c>
     </row>
     <row r="110" spans="1:4">
+      <c r="A110">
+        <v>14</v>
+      </c>
       <c r="B110" t="s">
         <v>126</v>
       </c>
@@ -2371,6 +2383,9 @@
       </c>
     </row>
     <row r="111" spans="1:4">
+      <c r="A111">
+        <v>14</v>
+      </c>
       <c r="B111" t="s">
         <v>127</v>
       </c>
@@ -2382,6 +2397,9 @@
       </c>
     </row>
     <row r="112" spans="1:4">
+      <c r="A112">
+        <v>14</v>
+      </c>
       <c r="B112" t="s">
         <v>128</v>
       </c>

--- a/CSV/王莽年表.xlsx
+++ b/CSV/王莽年表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F8039F-A56D-4649-A739-A868E4409699}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F4B81E-1CF4-0440-9176-EFDB36C6361E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="500" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="193">
   <si>
     <t>拜為黃門郎，遷射聲校尉。</t>
   </si>
@@ -515,6 +515,461 @@
     <rPh sb="0" eb="3">
       <t>zhu'bi'quan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莽以周官、王制之文，置卒正、連率、大尹，職如太守；屬令、屬長，職如都尉。置州牧、部監二十五人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公氏作牧，侯氏卒正，伯氏連率，子氏屬令，男氏屬長，皆世其官，其無爵者為尹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莽下書曰：「常安西都曰六鄉，衆縣曰六尉。義陽東都曰六州，衆縣曰六隊。粟米之內曰內郡，其外曰近郡。有鄣徼者曰邊郡。合百二十有五郡。九州之內，縣二千二百有三。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郡縣以亭為名者三百六十，以應符命文也。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令天下小學，戊子代甲子為六旬首。冠以戊子為元日，昏以戊寅之旬為忌日。百姓多不從者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匈奴單于知死，弟咸立為單于，求和親。莽遣使者厚賂之，詐許還其侍子登，因購求陳良、終帶等。單于即執良等付使者，檻車詣長安。莽燔燒良等於城北，令吏民會觀之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莽以韓威為將軍。然采普言，徵還諸將在邊者。免陳欽等十八人，又罷四關填都尉諸屯兵。會匈奴使還，單于知侍子登前誅死，發兵寇邊，莽復發軍屯。於是邊民流入內郡，為人奴婢，乃禁吏民敢挾邊民者棄市。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益州蠻夷殺大尹程隆，三邊盡反。遣平蠻將軍（馬）〔馮〕茂將兵擊之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年二月，置酒王路堂，公卿大夫皆佐酒。大赦天下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是時，日中見星。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訛言黃龍墮死黃山宮中，百姓犇走往觀者有萬數。莽惡之，捕繫問語所從起，不能得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單于咸既和親，求其子登屍，莽欲遣使送致，恐咸怨恨害使者，乃收前言當誅侍子者故將軍陳欽，以他辠繫獄。欽曰：「是欲以我為說於匈奴也。」遂自殺。莽選儒生能顓對者濟南王咸為大使，五威將琅邪伏黯等為帥，使送登屍。敕令掘單于知墓，棘鞭其屍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又令匈奴卻塞於漠北，責單于馬萬匹，牛三萬頭，羊十萬頭，及稍所略邊民生口在者皆還之。莽好為大言如此。咸到單于庭，陳莽威德，責單于背畔之辠，應敵從橫，單于不能詘，遂致命而還之。入塞，咸病死，封其子為伯，伏黯等皆為子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邯鄲以北大雨霧，水出，深者數丈，流殺數千人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年二月乙酉，地震，大雨雪，關東尤甚，深者一丈，竹柏或枯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是月戊辰，長平館西岸崩，邕涇水不流，毀而北行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月，莽下吏祿制度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以為河圖所謂「以土填水」，匈奴滅亡之祥也。乃遣并州牧宋弘、游擊都尉任萌等將兵擊匈奴，至邊止屯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月辛酉，霸城門災，民間所謂青門也。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戊子晦，日有食之。大赦天下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月戊辰，王路朱鳥門鳴，晝夜不絕，崔發等曰：「虞帝闢四門，通四聰。門鳴者，明當修先聖之禮，招四方之士也。」於是令羣臣皆賀，所舉四行從朱鳥門入而對策焉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平蠻將軍馮茂擊句町，士卒疾疫，死者什六七，賦斂民財什取五，益州虛耗而不克，徵還下獄死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更遣寧始將軍廉丹與庸部牧史熊擊句町，頗斬首，有勝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>就都大尹馮英不肯給，上言「自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越巂遂久仇牛、同亭邪豆之屬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>反畔以來，積且十年，郡縣距擊不已。續用馮茂，苟施一切之政。僰道以南，山險高深，茂多敺眾遠居，費以億計，吏士離毒氣死者什七。今丹、熊懼於自詭期會，調發諸郡兵穀，復訾民取其十四，空破梁州，功終不遂。宜罷兵屯田，明設購賞。」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翟義黨王孫慶捕得，莽使太醫、尚方與巧屠共刳剝之，量度五藏，以竹筳導其脈，知所終始，云可以治病。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是歲，遣大使五威將王駿、西域都護李崇將戊己校尉出西域，諸國皆郊迎貢獻焉。諸國前殺都護但欽，駿欲襲之，命佐帥何封、戊己校尉郭欽別將。焉耆詐降，伏兵擊駿等，皆死。欽、封後到，襲擊老弱，從車師還入塞。莽拜欽為填外將軍，封劋胡子，何封為集胡男。西域自此絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月，更授諸侯茅土於明堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是歲，復明六筦之令。每一筦下，為設科條防禁，犯者罪至死，吏民抵罪者浸衆。又一切調上公以下諸有奴婢者，率一口出錢三千六百，天下愈愁，盜賊起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置執法左右刺姦。選用能吏侯霸等分督六尉、六隊，如漢刺史，與三公士郡一人從事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臨淮瓜田儀等為盜賊，依阻會稽長州，琅邪女子呂母亦起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是歲八月，莽親之南郊，鑄作威斗。威斗者，以五石銅為之，若北斗，長二尺五寸，欲以厭勝衆兵。既成，令司命負之，莽出在前，入在御旁。鑄斗日，大寒，百官人馬有凍死者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年正月朔，北軍南門災。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以大司馬司允費興為荊州牧，見，問到部方略，興對曰：「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>荊、揚之民率依阻山澤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以漁采為業。間者，國張六筦，稅山澤，妨奪民之利，連年久旱，百姓飢窮，故為盜賊。興到部，欲令明曉告盜賊歸田里，假貸犂牛種食，闊其租賦，幾可以解釋安集。」莽怒，免興官。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下吏以不得奉祿，並為姦利，郡尹縣宰家累千金。莽下詔曰：「詳考始建國二年胡虜猾夏以來，諸軍吏及緣邊吏大夫以上為姦利增產致富者，收其家所有財產五分之四，以助邊急。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是歲，赤眉力子都、樊崇等以饑饉相聚，起於琅邪，轉鈔掠，衆皆萬數。遣使者發郡國兵擊之，不能克。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六年春，莽見盜賊多，乃令太史推三萬六千歲曆紀，六歲一改元，布天下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初獻新樂於明堂、太廟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是時，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>關東饑旱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>數年，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>力子都等黨衆亣多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。更始將軍廉丹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擊益州不能克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，徵還。更遣復位後大司馬護軍郭興、庸部牧李曅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擊蠻夷若豆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等，太傅犧叔士孫喜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清潔江湖之盜賊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;5;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而匈奴寇邊甚。莽乃大募天下丁男及死罪囚、吏民奴，名曰豬突豨勇，以為銳卒。一切稅天下吏民，訾三十取一，縑帛皆輸長安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令公卿以下至郡縣黃綬皆保養軍馬，多少各以秩為差。又博募有奇技術可以攻匈奴者，將待以不次之位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初，匈奴右骨都侯須卜當，其妻王昭君女也，嘗內附。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>翼平連率田況奏郡縣訾民不實，莽復三十稅一。以況忠言憂國，進爵為伯，賜錢二百萬。衆庶皆詈之。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青、徐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>民多棄鄉里流亡，老弱死道路，壯者入賊中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明年改元曰地皇，從三萬六千歲曆號也。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月壬申，日正黑。莽惡之，下書曰：「乃者日中見昧，陰薄陽，黑氣為變，百姓莫不驚怪。兆域大將軍王匡遣吏考問上變事者，欲蔽上之明，是以適見于天，以正于理，塞大異焉。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莽見四方盜賊多，復欲厭之，又下書曰：「予之皇初祖考黃帝定天下，將兵為上將軍，建華蓋，立斗獻，內設大將，外置大司馬五人，大將軍二十五人，偏將軍百二十五人，裨將軍千二百五十人，校尉萬二千五百人，司馬三萬七千五百人，候十一萬二千五百人，當百二十二萬五千人，士吏四十五萬人，士千三百五十萬人，應協於易『弧矢之利，以威天下』。予受符命之文，稽前人，將條備焉。」於是置前後左右中大司馬之位，賜諸州牧號為大將軍，郡卒正、連帥、大尹為偏將軍，屬令長裨將軍，縣宰為校尉。乘傳使者經歷郡國，日且十輩，倉無見穀以給，傳車馬不能足，賦取道中車馬，取辦於民。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月，大風毀王路堂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉅鹿男子馬適求等謀舉燕趙兵以誅莽，大司空士王丹發覺以聞。莽遣三公大夫逮治黨與，連及郡國豪傑數千人，皆誅死。封丹為輔國侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是歲，罷大小錢，更行貨布，長二寸五分，廣一寸，直貨錢二十五。貨錢徑一寸，重五銖，枚直一。兩品並行。敢盜鑄錢及偏行布貨，伍人知不發舉，皆沒入為官奴婢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是時，南郡張霸、江夏羊牧、王匡等起雲杜綠林，號曰下江兵，衆皆萬餘人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三輔盜賊麻起，乃置捕盜都尉官，令執法謁者追擊長安中，建鳴鼓攻賊幡，而使者隨其後。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉天下穀幣詣西河、五原、朔方、漁陽，每一郡以百萬數，欲以擊匈奴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國師和仲曹放助郭興擊句町。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遣太師犧仲景尚、更始將軍護軍王黨將兵擊青、徐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋，隕霜殺菽，關東大饑，蝗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>莽以王況</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讖言荊楚當興</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，李氏為輔，欲厭之，乃拜侍中掌牧大夫李棽為大將軍、揚州牧，賜名聖，使將兵奮擊。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閏月丙辰，大赦天下，天下大服民私服在詔書前亦釋除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郎陽成脩獻符命，言繼立民母，又曰：「黃帝以百二十女致神僊。」莽於是遣中散大夫、謁者各四十五人分行天下，博采鄉里所高有淑女者上名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莽夢長樂宮銅人五枚起立，莽惡之，念銅人銘有「皇帝初兼天下」之文，即使尚方工鐫滅所夢銅人膺文。又感漢高廟神靈，遣虎賁武士入高廟，拔劍四面提擊，斧壞戶牖，桃湯赭鞭鞭灑屋壁，令輕車校尉居其中，又令中軍北壘居高寢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是歲，南郡秦豐衆且萬人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初，四方皆以飢寒窮愁起為盜賊，稍稍羣聚，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常思歲熟得歸鄉里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。衆雖萬數，亶稱巨人、從事、三老、祭酒，不敢略有城邑，轉掠求食，日闋而已。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +977,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -536,6 +991,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -903,10 +1371,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet 1"/>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:A112"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2410,6 +2878,823 @@
         <v>0</v>
       </c>
     </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" t="s">
+        <v>98</v>
+      </c>
+      <c r="D119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>15</v>
+      </c>
+      <c r="B125" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>144</v>
+      </c>
+      <c r="C126" t="s">
+        <v>66</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" t="s">
+        <v>66</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>148</v>
+      </c>
+      <c r="C130" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
+        <v>149</v>
+      </c>
+      <c r="C131" t="s">
+        <v>66</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>16</v>
+      </c>
+      <c r="B132" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" t="s">
+        <v>66</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>16</v>
+      </c>
+      <c r="B133" t="s">
+        <v>151</v>
+      </c>
+      <c r="C133" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>16</v>
+      </c>
+      <c r="B134" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" t="s">
+        <v>82</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>16</v>
+      </c>
+      <c r="B135" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" t="s">
+        <v>82</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
+        <v>155</v>
+      </c>
+      <c r="C136" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137" t="s">
+        <v>98</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" t="s">
+        <v>64</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" t="s">
+        <v>90</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" t="s">
+        <v>133</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>17</v>
+      </c>
+      <c r="B141" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" t="s">
+        <v>82</v>
+      </c>
+      <c r="D141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>17</v>
+      </c>
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>163</v>
+      </c>
+      <c r="C143" t="s">
+        <v>66</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" t="s">
+        <v>82</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" t="s">
+        <v>64</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>18</v>
+      </c>
+      <c r="B146" t="s">
+        <v>166</v>
+      </c>
+      <c r="C146" t="s">
+        <v>82</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>167</v>
+      </c>
+      <c r="C147" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
+        <v>168</v>
+      </c>
+      <c r="C148" t="s">
+        <v>64</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
+        <v>169</v>
+      </c>
+      <c r="C149" t="s">
+        <v>82</v>
+      </c>
+      <c r="D149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>171</v>
+      </c>
+      <c r="C150" t="s">
+        <v>98</v>
+      </c>
+      <c r="D150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
+        <v>172</v>
+      </c>
+      <c r="C151" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>19</v>
+      </c>
+      <c r="B152" t="s">
+        <v>173</v>
+      </c>
+      <c r="C152" t="s">
+        <v>64</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
+        <v>174</v>
+      </c>
+      <c r="C153" t="s">
+        <v>90</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>20</v>
+      </c>
+      <c r="B154" t="s">
+        <v>175</v>
+      </c>
+      <c r="C154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>20</v>
+      </c>
+      <c r="B155" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" t="s">
+        <v>66</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>177</v>
+      </c>
+      <c r="C156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>20</v>
+      </c>
+      <c r="B157" t="s">
+        <v>178</v>
+      </c>
+      <c r="C157" t="s">
+        <v>66</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>179</v>
+      </c>
+      <c r="C158" t="s">
+        <v>64</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s">
+        <v>180</v>
+      </c>
+      <c r="C159" t="s">
+        <v>90</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>20</v>
+      </c>
+      <c r="B160" t="s">
+        <v>181</v>
+      </c>
+      <c r="C160" t="s">
+        <v>82</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>182</v>
+      </c>
+      <c r="C161" t="s">
+        <v>82</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>185</v>
+      </c>
+      <c r="C162" t="s">
+        <v>82</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>184</v>
+      </c>
+      <c r="C163" t="s">
+        <v>82</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" t="s">
+        <v>82</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>186</v>
+      </c>
+      <c r="C165" t="s">
+        <v>66</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>187</v>
+      </c>
+      <c r="C166" t="s">
+        <v>82</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>188</v>
+      </c>
+      <c r="C167" t="s">
+        <v>64</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="B168" t="s">
+        <v>189</v>
+      </c>
+      <c r="C168" t="s">
+        <v>64</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="B169" t="s">
+        <v>190</v>
+      </c>
+      <c r="C169" t="s">
+        <v>66</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="B170" t="s">
+        <v>191</v>
+      </c>
+      <c r="C170" t="s">
+        <v>82</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="B171" t="s">
+        <v>192</v>
+      </c>
+      <c r="C171" t="s">
+        <v>82</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSV/王莽年表.xlsx
+++ b/CSV/王莽年表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F4B81E-1CF4-0440-9176-EFDB36C6361E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70805A7E-B89B-2143-8EA0-26CA24350094}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="3800" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="194">
   <si>
     <t>拜為黃門郎，遷射聲校尉。</t>
   </si>
@@ -972,12 +972,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>諸劉為諸侯者，以戶多少就五等之差；其為吏者皆罷，待除於家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1005,6 +1009,13 @@
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1026,11 +1037,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1371,10 +1383,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet 1"/>
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2375,17 +2387,14 @@
       <c r="A77">
         <v>10</v>
       </c>
-      <c r="B77" t="s">
-        <v>89</v>
+      <c r="B77" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D77">
         <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2393,13 +2402,16 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D78">
         <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2407,13 +2419,13 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2421,13 +2433,13 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2435,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
         <v>64</v>
@@ -2449,13 +2461,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2463,13 +2475,13 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2477,10 +2489,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D84">
         <v>7</v>
@@ -2491,13 +2503,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2505,13 +2517,13 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2519,10 +2531,10 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2530,16 +2542,16 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
         <v>98</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2547,13 +2559,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2561,55 +2573,55 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>11</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>105</v>
+      <c r="B91" t="s">
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="45">
       <c r="A92">
         <v>11</v>
       </c>
-      <c r="B92" t="s">
-        <v>106</v>
+      <c r="B92" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C92" t="s">
         <v>66</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2617,13 +2629,13 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94" t="s">
         <v>64</v>
       </c>
-      <c r="D94" t="s">
-        <v>109</v>
+      <c r="D94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2631,13 +2643,13 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C95" t="s">
         <v>64</v>
       </c>
-      <c r="D95">
-        <v>1</v>
+      <c r="D95" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2645,13 +2657,13 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2659,13 +2671,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2673,13 +2685,13 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98" t="s">
         <v>82</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2687,7 +2699,7 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C99" t="s">
         <v>82</v>
@@ -2698,16 +2710,16 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2715,7 +2727,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
         <v>64</v>
@@ -2729,13 +2741,13 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102" t="s">
         <v>64</v>
       </c>
-      <c r="D102" t="s">
-        <v>118</v>
+      <c r="D102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2743,13 +2755,13 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
-      </c>
-      <c r="D103">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="D103" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2757,13 +2769,13 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C104" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2771,10 +2783,10 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2782,13 +2794,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2799,7 +2811,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
         <v>64</v>
@@ -2813,13 +2825,13 @@
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C108" t="s">
         <v>64</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2827,13 +2839,13 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C109" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2841,7 +2853,7 @@
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110" t="s">
         <v>66</v>
@@ -2855,7 +2867,7 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C111" t="s">
         <v>66</v>
@@ -2869,7 +2881,7 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C112" t="s">
         <v>66</v>
@@ -2883,10 +2895,10 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2897,7 +2909,7 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
         <v>64</v>
@@ -2911,10 +2923,10 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2925,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
         <v>133</v>
@@ -2939,10 +2951,10 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2953,13 +2965,13 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
         <v>64</v>
       </c>
-      <c r="D118" t="s">
-        <v>109</v>
+      <c r="D118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2967,13 +2979,13 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>98</v>
-      </c>
-      <c r="D119">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="D119" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2981,27 +2993,27 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C120" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C121" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3009,7 +3021,7 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C122" t="s">
         <v>64</v>
@@ -3023,10 +3035,10 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C123" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3037,13 +3049,13 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
-        <v>64</v>
-      </c>
-      <c r="D124" t="s">
-        <v>109</v>
+        <v>66</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3051,7 +3063,7 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C125" t="s">
         <v>64</v>
@@ -3065,21 +3077,21 @@
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C126" t="s">
-        <v>66</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="D126" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s">
         <v>66</v>
@@ -3093,13 +3105,13 @@
         <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C128" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3107,13 +3119,13 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C129" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3121,13 +3133,13 @@
         <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C130" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D130">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3135,13 +3147,13 @@
         <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C131" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3149,13 +3161,13 @@
         <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C132" t="s">
         <v>66</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3163,13 +3175,13 @@
         <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C133" t="s">
         <v>66</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3177,13 +3189,13 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C134" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3191,16 +3203,13 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C135" t="s">
         <v>82</v>
       </c>
       <c r="D135">
         <v>5</v>
-      </c>
-      <c r="E135" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3208,13 +3217,16 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C136" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3222,27 +3234,27 @@
         <v>16</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C137" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D137">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C138" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3250,13 +3262,13 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C139" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3264,13 +3276,13 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C140" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3278,13 +3290,13 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C141" t="s">
-        <v>82</v>
-      </c>
-      <c r="D141" t="s">
-        <v>161</v>
+        <v>133</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3292,24 +3304,24 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C142" t="s">
-        <v>64</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="D142" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C143" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -3320,13 +3332,13 @@
         <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3334,13 +3346,13 @@
         <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C145" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3348,27 +3360,27 @@
         <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C146" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C147" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3376,13 +3388,13 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C148" t="s">
         <v>64</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3390,13 +3402,13 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
-      </c>
-      <c r="D149" t="s">
-        <v>170</v>
+        <v>64</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3404,13 +3416,13 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C150" t="s">
-        <v>98</v>
-      </c>
-      <c r="D150">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="D150" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3418,7 +3430,7 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C151" t="s">
         <v>98</v>
@@ -3432,10 +3444,10 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C152" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D152">
         <v>7</v>
@@ -3446,27 +3458,27 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C153" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C154" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3474,13 +3486,13 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C155" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3488,13 +3500,13 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C156" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3502,13 +3514,13 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C157" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3516,13 +3528,13 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C158" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3530,13 +3542,13 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C159" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3544,27 +3556,27 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C160" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C161" t="s">
         <v>82</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3572,13 +3584,13 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C162" t="s">
         <v>82</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3586,13 +3598,13 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C163" t="s">
         <v>82</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3600,13 +3612,13 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C164" t="s">
         <v>82</v>
       </c>
       <c r="D164">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3614,13 +3626,13 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C165" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3628,13 +3640,13 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C166" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3642,18 +3654,21 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
+        <v>187</v>
+      </c>
+      <c r="C167" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
         <v>188</v>
-      </c>
-      <c r="C167" t="s">
-        <v>64</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="B168" t="s">
-        <v>189</v>
       </c>
       <c r="C168" t="s">
         <v>64</v>
@@ -3664,34 +3679,45 @@
     </row>
     <row r="169" spans="1:4">
       <c r="B169" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C169" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="B170" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C170" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="B171" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C171" t="s">
         <v>82</v>
       </c>
       <c r="D171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="B172" t="s">
+        <v>192</v>
+      </c>
+      <c r="C172" t="s">
+        <v>82</v>
+      </c>
+      <c r="D172">
         <v>0</v>
       </c>
     </row>

--- a/CSV/王莽年表.xlsx
+++ b/CSV/王莽年表.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70805A7E-B89B-2143-8EA0-26CA24350094}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6340C9CF-6096-AF47-B814-0C03EE66F608}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="3800" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$D$1:$D$172</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -1385,8 +1388,8 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3722,6 +3725,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D172" xr:uid="{FF567022-DD5E-7F44-AE35-C9BCDCCCA2E5}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/CSV/王莽年表.xlsx
+++ b/CSV/王莽年表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/CSV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6340C9CF-6096-AF47-B814-0C03EE66F608}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9196EDF6-F070-AF46-A226-9D22174B7413}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="460" windowWidth="24060" windowHeight="11360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>羣臣奏請：「益安漢公宮及家吏，置率更令，廟、廄、廚長丞，中庶子，虎賁以下百餘人，又置衞士三百人。安漢公廬為攝省，府為攝殿，第為攝宮。」奏可。</t>
-  </si>
-  <si>
-    <t>竇況等擊破西羌。</t>
-  </si>
-  <si>
-    <t>王邑等破翟義於圉。</t>
   </si>
   <si>
     <t>地震。大赦天下。</t>
@@ -977,6 +971,14 @@
   </si>
   <si>
     <t>諸劉為諸侯者，以戶多少就五等之差；其為吏者皆罷，待除於家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竇況等擊破西羌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王邑等破翟義於圉。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,8 +1390,8 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1399,16 +1401,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1419,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1433,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1447,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1461,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1472,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1486,10 +1488,10 @@
         <v>-8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1503,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1517,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1531,7 +1533,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1542,10 +1544,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1556,10 +1558,10 @@
         <v>-2</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1573,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1587,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1598,10 +1600,10 @@
         <v>-1</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1612,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1626,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1640,10 +1642,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1654,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1668,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -1685,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1699,7 +1701,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1713,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1724,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1741,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1752,10 +1754,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1769,7 +1771,7 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1780,10 +1782,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1794,13 +1796,13 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1808,10 +1810,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1822,10 +1824,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -1836,13 +1838,13 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
         <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1872,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1883,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1894,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1927,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1960,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1971,10 +1973,10 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D44">
         <v>6</v>
@@ -1985,10 +1987,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -1999,10 +2001,10 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2013,10 +2015,10 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2027,10 +2029,10 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2041,10 +2043,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2055,10 +2057,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2069,10 +2071,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2083,10 +2085,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2097,13 +2099,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2111,7 +2113,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2122,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2133,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2144,10 +2146,10 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2158,10 +2160,10 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2172,10 +2174,10 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2186,10 +2188,10 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2200,10 +2202,10 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2214,13 +2216,13 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2228,10 +2230,10 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2242,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2250,7 +2252,7 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2258,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2266,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2274,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2282,10 +2284,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2293,10 +2295,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2307,10 +2309,10 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2321,10 +2323,10 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2335,10 +2337,10 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -2349,10 +2351,10 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -2363,10 +2365,10 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2377,10 +2379,10 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2391,10 +2393,10 @@
         <v>10</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2405,16 +2407,16 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2422,10 +2424,10 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2436,10 +2438,10 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D80">
         <v>7</v>
@@ -2450,10 +2452,10 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2464,10 +2466,10 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2478,10 +2480,10 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2492,10 +2494,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D84">
         <v>7</v>
@@ -2506,10 +2508,10 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D85">
         <v>7</v>
@@ -2520,10 +2522,10 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2534,10 +2536,10 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2548,10 +2550,10 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2562,10 +2564,10 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D89">
         <v>7</v>
@@ -2576,10 +2578,10 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -2590,10 +2592,10 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2604,10 +2606,10 @@
         <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2618,10 +2620,10 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -2632,10 +2634,10 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2660,10 +2662,10 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -2674,10 +2676,10 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2688,10 +2690,10 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -2702,10 +2704,10 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D99">
         <v>7</v>
@@ -2716,10 +2718,10 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D100">
         <v>7</v>
@@ -2730,10 +2732,10 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2744,10 +2746,10 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2758,13 +2760,13 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2772,10 +2774,10 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -2786,10 +2788,10 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2800,10 +2802,10 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2814,10 +2816,10 @@
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2828,10 +2830,10 @@
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2842,10 +2844,10 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -2856,10 +2858,10 @@
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2870,10 +2872,10 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2884,10 +2886,10 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2898,10 +2900,10 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2912,10 +2914,10 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2926,10 +2928,10 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2940,10 +2942,10 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2954,10 +2956,10 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2968,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C118" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2982,13 +2984,13 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C119" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2996,10 +2998,10 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D120">
         <v>7</v>
@@ -3010,10 +3012,10 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C121" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -3024,10 +3026,10 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C122" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3038,10 +3040,10 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C123" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3052,10 +3054,10 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C124" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -3066,13 +3068,13 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C125" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D125" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3080,13 +3082,13 @@
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D126" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3094,10 +3096,10 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C127" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3108,10 +3110,10 @@
         <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C128" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -3122,10 +3124,10 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3136,10 +3138,10 @@
         <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C130" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3150,10 +3152,10 @@
         <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D131">
         <v>7</v>
@@ -3164,10 +3166,10 @@
         <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C132" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3178,10 +3180,10 @@
         <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C133" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -3192,10 +3194,10 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C134" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -3206,10 +3208,10 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C135" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D135">
         <v>5</v>
@@ -3220,16 +3222,16 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C136" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D136">
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3237,10 +3239,10 @@
         <v>16</v>
       </c>
       <c r="B137" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C137" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -3251,10 +3253,10 @@
         <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C138" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -3265,10 +3267,10 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C139" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -3279,10 +3281,10 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C140" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -3293,10 +3295,10 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C141" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -3307,13 +3309,13 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D142" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3321,10 +3323,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C143" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -3335,10 +3337,10 @@
         <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C144" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -3349,10 +3351,10 @@
         <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -3363,10 +3365,10 @@
         <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C146" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -3377,10 +3379,10 @@
         <v>18</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C147" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -3391,10 +3393,10 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C148" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -3405,10 +3407,10 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C149" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -3419,13 +3421,13 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C150" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D150" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3433,10 +3435,10 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C151" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D151">
         <v>7</v>
@@ -3447,10 +3449,10 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C152" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D152">
         <v>7</v>
@@ -3461,10 +3463,10 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C153" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D153">
         <v>7</v>
@@ -3475,10 +3477,10 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C154" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -3489,10 +3491,10 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C155" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -3503,10 +3505,10 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C156" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -3517,10 +3519,10 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C157" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -3531,10 +3533,10 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C158" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -3545,10 +3547,10 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C159" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -3559,10 +3561,10 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C160" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -3573,10 +3575,10 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C161" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -3587,10 +3589,10 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -3601,10 +3603,10 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C163" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -3615,10 +3617,10 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C164" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D164">
         <v>5</v>
@@ -3629,10 +3631,10 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C165" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D165">
         <v>7</v>
@@ -3643,10 +3645,10 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C166" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D166">
         <v>2</v>
@@ -3657,10 +3659,10 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C167" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D167">
         <v>3</v>
@@ -3671,10 +3673,10 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C168" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -3682,10 +3684,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="B169" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C169" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -3693,10 +3695,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="B170" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C170" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -3704,10 +3706,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="B171" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C171" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -3715,10 +3717,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="B172" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C172" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D172">
         <v>0</v>
